--- a/Module port assignments.xlsx
+++ b/Module port assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marty\Documents\Dropbox\Trains\CTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Trains\CTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{575BCAFA-72E1-44CA-ADFA-1549278F72D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7876C0E6-E156-458C-9803-908C37496DA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{86ECFD17-715F-44CA-ACA4-03502E911565}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,126 +349,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,17 +803,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B5BF03-38DA-439B-A795-2F9D881B509F}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
     <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="4" style="1" customWidth="1"/>
@@ -822,20 +850,20 @@
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>5</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="38">
+      <c r="K2" s="17">
         <v>8</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="19">
         <v>5</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="21">
         <v>8</v>
       </c>
     </row>
@@ -858,12 +886,12 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="39"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="26"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -878,15 +906,15 @@
       <c r="D4" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="I4" s="14">
+      <c r="G4" s="41"/>
+      <c r="I4" s="13">
         <v>13</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="16">
+      <c r="K4" s="34">
         <v>21</v>
       </c>
     </row>
@@ -903,16 +931,16 @@
       <c r="D5" s="1">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
+      <c r="G5" s="43"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -927,17 +955,17 @@
       <c r="D6" s="3">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="I6" s="29">
+      <c r="G6" s="41"/>
+      <c r="I6" s="26">
         <v>20</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="29">
         <v>19</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>12</v>
       </c>
     </row>
@@ -954,16 +982,16 @@
       <c r="D7" s="3">
         <v>19</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="45"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -978,16 +1006,16 @@
       <c r="D8" s="3">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="26"/>
+      <c r="G8" s="43"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1002,15 +1030,15 @@
       <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21">
+      <c r="G9" s="45"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="11">
         <v>6</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1025,17 +1053,17 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="I10" s="29">
+      <c r="G10" s="41"/>
+      <c r="I10" s="26">
         <v>34</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="29">
         <v>33</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="36">
         <v>7</v>
       </c>
     </row>
@@ -1052,13 +1080,13 @@
       <c r="D11" s="1">
         <v>33</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="32"/>
+      <c r="G11" s="45"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1073,13 +1101,13 @@
       <c r="D12" s="1">
         <v>34</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1105,15 +1133,15 @@
       <c r="D14" s="1">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21">
+      <c r="G14" s="41"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9">
         <v>14</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1128,17 +1156,17 @@
       <c r="D15" s="1">
         <v>22</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="I15" s="29">
+      <c r="G15" s="41"/>
+      <c r="I15" s="26">
         <v>22</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="29">
         <v>23</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="29">
         <v>24</v>
       </c>
     </row>
@@ -1155,15 +1183,15 @@
       <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="45"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1176,15 +1204,15 @@
       <c r="D17" s="1">
         <v>24</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="43"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1211,17 +1239,17 @@
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21">
+      <c r="G21" s="41"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9">
         <v>2</v>
       </c>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1240,24 +1268,24 @@
       <c r="G22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>1</v>
       </c>
       <c r="J22" s="15"/>
-      <c r="K22" s="38">
-        <v>4</v>
-      </c>
-      <c r="M22" s="27">
+      <c r="K22" s="17">
+        <v>4</v>
+      </c>
+      <c r="M22" s="19">
         <v>1</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1276,14 +1304,14 @@
       <c r="G23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="39"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I23" s="14"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="18"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1302,24 +1330,24 @@
       <c r="G24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>9</v>
       </c>
       <c r="J24" s="15"/>
-      <c r="K24" s="38">
+      <c r="K24" s="17">
         <v>10</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="19">
         <v>9</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1338,14 +1366,14 @@
       <c r="G25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="39"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="26"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I25" s="14"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="18"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1364,24 +1392,24 @@
       <c r="G26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="46">
         <v>16</v>
       </c>
       <c r="J26" s="15"/>
-      <c r="K26" s="38">
+      <c r="K26" s="17">
         <v>17</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="19">
         <v>16</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1400,14 +1428,14 @@
       <c r="G27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="39"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="26"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="47"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="18"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1420,19 +1448,19 @@
       <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="I28" s="29">
+      <c r="G28" s="41"/>
+      <c r="I28" s="26">
         <v>18</v>
       </c>
       <c r="J28" s="15"/>
-      <c r="K28" s="24">
+      <c r="K28" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1445,15 +1473,15 @@
       <c r="D29" s="3">
         <v>18</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="43"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1466,17 +1494,17 @@
       <c r="D30" s="1">
         <v>15</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="23">
+      <c r="G30" s="50"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="11">
         <v>15</v>
       </c>
-      <c r="K30" s="40"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1484,29 +1512,27 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
+        <v>11</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="I31" s="26">
+        <v>32</v>
+      </c>
+      <c r="J31" s="29">
         <v>31</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="23">
         <v>11</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="I31" s="29">
-        <v>32</v>
-      </c>
-      <c r="J31" s="34">
-        <v>31</v>
-      </c>
-      <c r="K31" s="43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1514,18 +1540,27 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="24"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="53"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1540,16 +1575,16 @@
       <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="45"/>
+      <c r="G33" s="43"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1564,15 +1599,15 @@
       <c r="D34" s="1">
         <v>25</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="I34" s="29">
+      <c r="G34" s="41"/>
+      <c r="I34" s="26">
         <v>26</v>
       </c>
       <c r="J34" s="15"/>
-      <c r="K34" s="41">
+      <c r="K34" s="32">
         <v>25</v>
       </c>
     </row>
@@ -1589,13 +1624,13 @@
       <c r="D35" s="1">
         <v>26</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="33"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1611,16 +1646,16 @@
       <c r="D38" s="2">
         <v>27</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="22">
+      <c r="G38" s="41"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="10">
         <v>27</v>
       </c>
-      <c r="K38" s="40"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1635,18 +1670,18 @@
       <c r="D39" s="2">
         <v>28</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="I39" s="29">
+      <c r="G39" s="41"/>
+      <c r="I39" s="26">
         <v>28</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="29">
         <v>29</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="29">
         <v>30</v>
       </c>
     </row>
@@ -1663,14 +1698,14 @@
       <c r="D40" s="2">
         <v>29</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="G40" s="45"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1685,38 +1720,55 @@
       <c r="D41" s="2">
         <v>30</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
+      <c r="G41" s="43"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+  <mergeCells count="75">
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="K31:K33"/>
     <mergeCell ref="I39:I41"/>
@@ -1733,43 +1785,27 @@
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
